--- a/biology/Médecine/Gérard_Salem/Gérard_Salem.xlsx
+++ b/biology/Médecine/Gérard_Salem/Gérard_Salem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Salem</t>
+          <t>Gérard_Salem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérard Salem, né à Beyrouth en 1946 et mort le 10 octobre 2018 à Lausanne (Suisse)[1] à l'âge de 72 ans, est un essayiste et médecin-psychiatre suisse. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard Salem, né à Beyrouth en 1946 et mort le 10 octobre 2018 à Lausanne (Suisse) à l'âge de 72 ans, est un essayiste et médecin-psychiatre suisse. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Salem</t>
+          <t>Gérard_Salem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,19 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérard Salem naît en 1946 à Beyrouth, d’un père maronite négociant en import-export et d’une mère assyro-chaldéenne. Son grand-père maternel est professeur de littérature française au lycée français d’Antioche en Turquie. Il a une sœur aînée, Gemma, et un frère cadet, Gilbert, devenus tous deux écrivains.
 Il passe son enfance au Proche-Orient. Alors qu’il a quatre ans, sa famille déménage en Iran, d’abord à Khorramshahr, ville jumelée à Abadan dans le Golfe Persique, puis à Téhéran, avec de fréquents retours au Liban et en Turquie (Antioche, Mersine, Adana, Istanbul). Il fait sa scolarité primaire au collège Saint-Louis de Téhéran, tenu par les pères lazaristes français.
 Dès l’âge de treize ans, il est envoyé à Lausanne, au collège Champittet, tenu par les chanoines du Grand-Saint-Bernard, en section littéraire latin/anglais. Fasciné par la littérature et la poésie médiévales, il se nourrit aussi de Montaigne et de Rabelais. C'est là que s’élabore sa double vocation littéraire et médicale. Ses premiers écrits, non publiés, voient le jour.
 Il fait des études de médecine à la faculté de Lausanne, tout en suivant en auditeur des cours de linguistique et de littérature à la faculté des Lettres. Il se destine à la médecine générale, à l’exemple de quelques auteurs qu’il affectionne : Tchékhov, Boulgakov, Céline.
 Après des stages cliniques en médecine, en obstétrique et en chirurgie, il se spécialise pourtant en psychiatrie et psychothérapie, touché par la condition des schizophrènes et de leurs familles. Il travaille à l’hôpital universitaire de Cery pendant près de dix-sept ans, avant d’exercer sa profession en pratique libérale.
-À la suite d'un premier séjour aux USA sur les traces de Bateson en Californie et de Boszormenyi-Nagy à Philadelphie, il accomplit un cursus académique d’enseignant en thérapie systémique et en hypnose aux universités de Lausanne, de Genève, de Paris VI et Paris VIII[2]. Il publie de nombreux articles, essais et ouvrages en ces domaines et donne des conférences en Europe, aux États-Unis, en Chine. Un de ses essais, Le combat thérapeutique[3], paru chez Armand Colin, ouvre des perspectives nouvelles sur le paradoxe du concept d’alliance conflictuelle.
+À la suite d'un premier séjour aux USA sur les traces de Bateson en Californie et de Boszormenyi-Nagy à Philadelphie, il accomplit un cursus académique d’enseignant en thérapie systémique et en hypnose aux universités de Lausanne, de Genève, de Paris VI et Paris VIII. Il publie de nombreux articles, essais et ouvrages en ces domaines et donne des conférences en Europe, aux États-Unis, en Chine. Un de ses essais, Le combat thérapeutique, paru chez Armand Colin, ouvre des perspectives nouvelles sur le paradoxe du concept d’alliance conflictuelle.
 Parallèlement à son parcours médical et académique, il écrit régulièrement, publie quelques nouvelles à la revue Minuit et dans divers autres revues, de même que diverses pantalonnades dans une revue de pataphysique (Centre de Recherches Périphériscopiques). Il travaille à un roman non publié, tient pendant cinq ans une chronique au Nouveau Quotidien à Lausanne et Genève, sous un pseudonyme.
 Il a la bougeotte du voyage, fait de fréquents séjours en France, en Italie, en Orient, aux États-Unis, en Chine. Dans ce dernier pays, il est guide accompagnateur de groupes pour une dizaine de voyages culturels. Attaché à la Chine depuis 1988, il étudie le mandarin à l’Université de Genève, passe une demi-licence, lit beaucoup Segalen et Lu Xun (tous deux médecins et écrivains), mais aussi Qian Zhongshu, Yang Jiang, Lao She, Billeter. Il tient de nombreux carnets de voyage et consacre un essai à l’esprit nomade (en cours d'achèvement).
 Il séjourne entre Lausanne et le Valais, exerce la psychothérapie et enseigne à temps partiel.
-Famille
-Gérard Salem est père d’un fils musicien, Antoine, et d’une fille collagiste, Nora.
 </t>
         </is>
       </c>
@@ -534,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Salem</t>
+          <t>Gérard_Salem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,14 +561,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cursus médical</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Privat-docent et maître d’enseignement et de recherches à l’Université de Lausanne (Faculté de Médecine et Biologie), Gérard Salem enseignait la thérapie systémique et l’hypnothérapie dans les facultés de médecine de Genève et de Paris VI[4]. Il est par ailleurs conférencier et formateur dans diverses associations consacrées à la thérapie contextuelle de Iván Böszörményi-Nagy (Association fractale[5]) ou à l’hypnose ericksonienne (IRHYS[6]).
-Il est membre de l’AFTA (American Family Therapy Academy[7]) dès 1982. De 1990 à 1999 cofondateur et président du conseil de la fondation Ling[8],[9] (Médecine-Psychologie-Culture) à Lausanne, dont l'objet était de confronter dans une perspective comparative la médecine occidentale aux médecines dites parallèles ou naturelles (chinoise, ayurvédique, amérindiennea, africaine)[10]. Il est cofondateur de la fondation Éthique familiale à Lausanne en 2002 et médecin directeur de la CIMI[11] de 2003 à 2010[2].
-Il dirige la Consultation systémique de Lucinge (Consyl) à Lausanne[12],[9], ainsi que la Consultation Carbaccio à Sion (Valais)[13],[14].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard Salem est père d’un fils musicien, Antoine, et d’une fille collagiste, Nora.
 </t>
         </is>
       </c>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Salem</t>
+          <t>Gérard_Salem</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,22 +598,96 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Cursus médical</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Privat-docent et maître d’enseignement et de recherches à l’Université de Lausanne (Faculté de Médecine et Biologie), Gérard Salem enseignait la thérapie systémique et l’hypnothérapie dans les facultés de médecine de Genève et de Paris VI. Il est par ailleurs conférencier et formateur dans diverses associations consacrées à la thérapie contextuelle de Iván Böszörményi-Nagy (Association fractale) ou à l’hypnose ericksonienne (IRHYS).
+Il est membre de l’AFTA (American Family Therapy Academy) dès 1982. De 1990 à 1999 cofondateur et président du conseil de la fondation Ling, (Médecine-Psychologie-Culture) à Lausanne, dont l'objet était de confronter dans une perspective comparative la médecine occidentale aux médecines dites parallèles ou naturelles (chinoise, ayurvédique, amérindiennea, africaine). Il est cofondateur de la fondation Éthique familiale à Lausanne en 2002 et médecin directeur de la CIMI de 2003 à 2010.
+Il dirige la Consultation systémique de Lucinge (Consyl) à Lausanne ainsi que la Consultation Carbaccio à Sion (Valais),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gérard_Salem</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Salem</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Livres
-Thèse, métaphore, chimère. Dynamique esthétique dans l’art, la folie et la science, éd. Peter Lang, Berne, 1987. (330 pages). (avec Alfred Bader).
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Thèse, métaphore, chimère. Dynamique esthétique dans l’art, la folie et la science, éd. Peter Lang, Berne, 1987. (330 pages). (avec Alfred Bader).
 L’approche thérapeutique de la famille, éd. Masson, Paris, 2009 (5e éd, revue et augmentée) (287 pages).
 Tableaux de familles, éd. La joie de lire, Genève, 1999. (166 pages), 2e éd. 2016, avec Pierre Pratt, illustrateur.
 Soigner par l’hypnose, éd. Masson, Paris, 2012 (5e éd.). (332 pages) (avec Éric Bonvin).
 Le combat thérapeutique, éd. Armand Colin, Paris, 2011 (2e éd. revue et augmentée) (285 pages).
 La maltraitance familiale. Dévoiler, intervenir, transformer, éd. Armand Colin, Paris, 2011(327 pages) (avec Nahum Frenck, Francine Ferguson, Nicolas Rechsteiner).
 Marc de café, roman, éd. l’Age d’Homme, Lausanne &amp; Rue Férou, Paris, 2015.
-Tu deviens adulte le jour où tu pardonnes à tes parents, roman, 250p., éd. Flammarion/Versilio, Paris, 2018.
-Articles ou chapitres de livres
-Revue des théories sur le fondement du tabou de l’inceste, Annales Médico-Psychologiques, Masson, Paris n° 138/4, 1980, p. 431-442.
+Tu deviens adulte le jour où tu pardonnes à tes parents, roman, 250p., éd. Flammarion/Versilio, Paris, 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gérard_Salem</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Salem</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Articles ou chapitres de livres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Revue des théories sur le fondement du tabou de l’inceste, Annales Médico-Psychologiques, Masson, Paris n° 138/4, 1980, p. 431-442.
 Rites d’agression et d’apaisement : aspects systémiques et éthologiques in Société suisse de psychiatrie : Agressivité : formes, fondements, aspects thérapeutiques. Orell Füssli, Zürich, p. 157-170, 1981.
 Loyautés, dettes et mérites: contribution théorique et clinique à la thérapie contextuelle, Évol. Psychiatr., p. 47, p. 743-770, 1982.
 Évitement de l’inceste dans la famille humaine et dans certaines espèces animales : point de vue systémique, Arch. Suisses Anthropol. Gén., Genève, 46, 1, p. 35-47, 1982.
